--- a/dump/sanity/Book1.xlsx
+++ b/dump/sanity/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyas/Desktop/IISc/Violet/Pi_Experiments/VIoLET/dump/sanity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CC4CB0-68DF-A942-A861-F635C4DB5FCC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAC57DB-2E83-2D4D-A642-ED8E4DC5A14C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="460" windowWidth="27080" windowHeight="17040" activeTab="3" xr2:uid="{F12E8A81-5A63-464F-B68D-FA1DD9186C5E}"/>
   </bookViews>
@@ -558,110 +558,208 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E355885-A896-7648-94E7-05D6A54A96CB}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B16"/>
+      <selection activeCell="B1" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
+        <v>-7.55792366924</v>
+      </c>
+      <c r="B1">
         <v>9.7986758857500007</v>
-      </c>
-      <c r="B1">
-        <v>-7.55792366924</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>-1.5210581055900001</v>
+      </c>
+      <c r="B2">
         <v>9.2547022515300004</v>
-      </c>
-      <c r="B2">
-        <v>-1.5210581055900001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>1.01577406467</v>
+      </c>
+      <c r="B3">
         <v>8.7519509230800008</v>
-      </c>
-      <c r="B3">
-        <v>1.01577406467</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>2.4280277642699999</v>
+      </c>
+      <c r="B4">
         <v>8.3133433455500008</v>
-      </c>
-      <c r="B4">
-        <v>2.4280277642699999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>3.07057860888</v>
+      </c>
+      <c r="B5">
         <v>7.8047299774600001</v>
-      </c>
-      <c r="B5">
-        <v>3.07057860888</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>3.5368927506899999</v>
+      </c>
+      <c r="B6">
         <v>7.4328410580400002</v>
       </c>
-      <c r="B6">
-        <v>3.5368927506899999</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7">
+      <c r="A7">
         <v>3.89683930681</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8">
+      <c r="A8">
         <v>4.10767561793</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9">
+      <c r="A9">
         <v>2.7786326218399999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10">
+      <c r="A10">
         <v>2.6381721679500001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11">
+      <c r="A11">
         <v>2.7536519198599998</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12">
+      <c r="A12">
         <v>2.7801197801500002</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13">
+      <c r="A13">
         <v>2.8274995936499998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14">
+      <c r="A14">
         <v>2.73251248486</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15">
+      <c r="A15">
         <v>2.62256222236</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16">
+      <c r="A16">
         <v>2.5108416944099998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>-15.1329328598</v>
+      </c>
+      <c r="B21">
+        <v>-1.4299456508799999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>-2.6190341835300002</v>
+      </c>
+      <c r="B22">
+        <v>-9.5055118616300005E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>-1.3146309057000001</v>
+      </c>
+      <c r="B23">
+        <v>-0.37249557194600003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>-0.98058521515599995</v>
+      </c>
+      <c r="B24">
+        <v>-0.159149008368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>-1.61050917775</v>
+      </c>
+      <c r="B25">
+        <v>-2.0708100629700001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>-1.32712977055</v>
+      </c>
+      <c r="B26">
+        <v>-0.67802931030000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>-1.3896457177499999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>-1.9210333553100001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>-14.630910634499999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>-5.43803126262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>-2.7764079538800002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>-3.77054705786</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>-3.66752119034</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>-5.2389821303200002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>-6.28415865877</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>-5.2145180611799997</v>
       </c>
     </row>
   </sheetData>
